--- a/Lab 8 Data.xlsx
+++ b/Lab 8 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcmehrtens/Documents/Iowa State University/07 - Spring 2023/AER E 322/AER-E-322-lab-08/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC86A4-EA72-6D4F-852A-56FCCC3C3CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DE9E32-027D-F348-AFE5-1DA17DFB376F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
